--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_ap.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_ap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maia/Documents/Projetos/gcm/backend/src/shared/infra/typeorm/seeds/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D678D6-8E7A-C643-A6A9-6A75EE984B10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138D534D-E081-C745-9537-CBD4C7395FAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27320" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -134,16 +134,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -167,9 +161,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +468,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -678,9 +671,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
